--- a/data/Sub information.xlsx
+++ b/data/Sub information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/j_moat_kew_org/Documents/papers/Fog oases/Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/j_moat_kew_org/Documents/papers/Fog oases/github/fog-oases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{342371A9-5D6F-408B-81B4-F790EF17B806}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55FB04B0-DEA9-4F0E-9FFB-0FDFB08E51C0}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{342371A9-5D6F-408B-81B4-F790EF17B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF1B20AA-48EB-40AA-8FBA-0C6859014394}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Fog Oasis sites" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="275">
   <si>
     <t>Region / Country</t>
   </si>
@@ -422,9 +422,6 @@
     <t>Cicasos</t>
   </si>
   <si>
-    <t>Paloma</t>
-  </si>
-  <si>
     <t>Calango</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
   </si>
   <si>
     <t>Cerro Guanacos</t>
-  </si>
-  <si>
-    <t>Cerro Obaryide Sur-Cerro Pajonal</t>
   </si>
   <si>
     <t>Punta Lobos</t>
@@ -3896,16 +3890,10 @@
     <t>ARID DIVIDE</t>
   </si>
   <si>
-    <t>https://gistin.users.earthengine.app/view/fogoasis#regionid=41</t>
-  </si>
-  <si>
     <t>Morro Moreno y Chimba</t>
   </si>
   <si>
     <t>Complejo Ancón-Carabayllo</t>
-  </si>
-  <si>
-    <t>Complejo Lima Pachacámac</t>
   </si>
   <si>
     <t>Complejo El Carmen, Chincha</t>
@@ -3973,6 +3961,15 @@
   <si>
     <t>Fog Oasis</t>
   </si>
+  <si>
+    <t>La Paloma</t>
+  </si>
+  <si>
+    <t>Complejo Lima Pachacamac</t>
+  </si>
+  <si>
+    <t>Cerro Oyarbide Sur-Cerro Pajonal</t>
+  </si>
 </sst>
 </file>
 
@@ -3981,11 +3978,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4149,14 +4160,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -4246,112 +4249,105 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4570,2795 +4566,2795 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1054ABF9-2A9F-4138-859C-04D21607069E}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.4140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.4140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.4140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="35"/>
+    <col min="8" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>245</v>
+      <c r="F1" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>-5.9635300000000004</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="34">
         <v>-81.045590000000004</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="33">
         <v>1</v>
       </c>
-      <c r="G2" s="39" t="str">
-        <f>"https://gistin.users.earthengine.app/view/fogoasis#llz=" &amp; B2 &amp; ","&amp;C2 &amp;",11"</f>
+      <c r="G2" s="17" t="str">
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#llz=" &amp; B2 &amp; ","&amp;C2 &amp;",11")</f>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-5.96353,-81.04559,11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <v>-6.8707000000000003</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="34">
         <v>-79.772999999999996</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="33">
         <v>2</v>
       </c>
-      <c r="G3" s="39" t="str">
-        <f t="shared" ref="G3:G66" si="0">"https://gistin.users.earthengine.app/view/fogoasis#llz=" &amp; B3 &amp; ","&amp;C3 &amp;",11"</f>
+      <c r="G3" s="17" t="str">
+        <f t="shared" ref="G3:G66" si="0">HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#llz=" &amp; B3 &amp; ","&amp;C3 &amp;",11")</f>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-6.8707,-79.773,11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="34">
         <v>-7.2633000000000001</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="34">
         <v>-79.540689</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>3</v>
       </c>
-      <c r="G4" s="39" t="str">
+      <c r="G4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-7.2633,-79.540689,11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="36">
+      <c r="A5" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="34">
         <v>-7.6957700000000004</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>79.250906999999998</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>4</v>
       </c>
-      <c r="G5" s="39" t="str">
+      <c r="G5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-7.69577,79.250907,11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>-7.9667000000000003</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>-79.099999999999994</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>5</v>
       </c>
-      <c r="G6" s="39" t="str">
+      <c r="G6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-7.9667,-79.1,11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <v>-8.0500000000000007</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="34">
         <v>-79.033299999999997</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>5</v>
       </c>
-      <c r="G7" s="39" t="str">
+      <c r="G7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-8.05,-79.0333,11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="34">
         <v>-8.1781000000000006</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="34">
         <v>-78.940700000000007</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>6</v>
       </c>
-      <c r="G8" s="39" t="str">
+      <c r="G8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-8.1781,-78.9407,11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="34">
         <v>-8.3167000000000009</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="34">
         <v>-78.8</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>6</v>
       </c>
-      <c r="G9" s="39" t="str">
+      <c r="G9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-8.3167,-78.8,11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>-8.4284630000000007</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <v>-78.926349999999999</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>7</v>
       </c>
-      <c r="G10" s="39" t="str">
+      <c r="G10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-8.428463,-78.92635,11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="A11" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="34">
         <v>-8.8001839999999998</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="34">
         <v>-78.443426000000002</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>8</v>
       </c>
-      <c r="G11" s="39" t="str">
+      <c r="G11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-8.800184,-78.443426,11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="36">
+      <c r="A12" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="34">
         <v>-9.0489080000000008</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="34">
         <v>-78.290891999999999</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>9</v>
       </c>
-      <c r="G12" s="39" t="str">
+      <c r="G12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-9.048908,-78.290892,11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="36">
+      <c r="A13" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="34">
         <v>-9.6180000000000003</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="34">
         <v>-78.317999999999998</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>12</v>
       </c>
-      <c r="G13" s="39" t="str">
+      <c r="G13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-9.618,-78.318,11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="34">
         <v>-10.412000000000001</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>-77.92</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>14</v>
       </c>
-      <c r="G14" s="39" t="str">
+      <c r="G14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-10.412,-77.92,11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="34">
         <v>-10.677</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="34">
         <v>-77.763000000000005</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="33">
         <v>14</v>
       </c>
-      <c r="G15" s="39" t="str">
+      <c r="G15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-10.677,-77.763,11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="34">
         <v>-10.76</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="34">
         <v>-77.676000000000002</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="33">
         <v>15</v>
       </c>
-      <c r="G16" s="39" t="str">
+      <c r="G16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-10.76,-77.676,11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="34">
         <v>-10.817</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>-77.623000000000005</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="33">
         <v>15</v>
       </c>
-      <c r="G17" s="39" t="str">
+      <c r="G17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-10.817,-77.623,11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="34">
         <v>-10.862135</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>-77.505567999999997</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>15</v>
       </c>
-      <c r="G18" s="39" t="str">
+      <c r="G18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-10.862135,-77.505568,11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="34">
         <v>-10.884</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <v>-77.555000000000007</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>15</v>
       </c>
-      <c r="G19" s="39" t="str">
+      <c r="G19" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-10.884,-77.555,11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="34">
         <v>-10.933999999999999</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="34">
         <v>-77.525999999999996</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <v>15</v>
       </c>
-      <c r="G20" s="39" t="str">
+      <c r="G20" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-10.934,-77.526,11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="34">
         <v>-11.367000000000001</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="34">
         <v>-77.352999999999994</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="33">
         <v>16</v>
       </c>
-      <c r="G21" s="39" t="str">
+      <c r="G21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.367,-77.353,11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="34">
         <v>-11.401</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="34">
         <v>-77.174999999999997</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="33">
         <v>16</v>
       </c>
-      <c r="G22" s="39" t="str">
+      <c r="G22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.401,-77.175,11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="34">
         <v>-11.407975</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="34">
         <v>-77.230929000000003</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="33">
         <v>16</v>
       </c>
-      <c r="G23" s="39" t="str">
+      <c r="G23" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.407975,-77.230929,11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="34">
         <v>-11.453545999999999</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="34">
         <v>-77.297595000000001</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="33">
         <v>16</v>
       </c>
-      <c r="G24" s="39" t="str">
+      <c r="G24" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.453546,-77.297595,11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="34">
         <v>-11.581</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="34">
         <v>-77.102999999999994</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="33">
         <v>17</v>
       </c>
-      <c r="G25" s="39" t="str">
+      <c r="G25" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.581,-77.103,11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="34">
         <v>-11.717000000000001</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <v>-77.165000000000006</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="33">
         <v>17</v>
       </c>
-      <c r="G26" s="39" t="str">
+      <c r="G26" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.717,-77.165,11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="34">
         <v>-11.805</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="34">
         <v>-77.067999999999998</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="33">
         <v>17</v>
       </c>
-      <c r="G27" s="39" t="str">
+      <c r="G27" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.805,-77.068,11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="34">
         <v>-11.823</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="34">
         <v>-76.974999999999994</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="33">
         <v>18</v>
       </c>
-      <c r="G28" s="39" t="str">
+      <c r="G28" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.823,-76.975,11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="34">
         <v>-11.871</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="34">
         <v>-76.995999999999995</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="33">
         <v>18</v>
       </c>
-      <c r="G29" s="39" t="str">
+      <c r="G29" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.871,-76.996,11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="34">
         <v>-11.8947</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="34">
         <v>-77.094099999999997</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="33">
         <v>18</v>
       </c>
-      <c r="G30" s="39" t="str">
+      <c r="G30" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.8947,-77.0941,11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="34">
         <v>-11.9</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="34">
         <v>-77.001999999999995</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="33">
         <v>18</v>
       </c>
-      <c r="G31" s="39" t="str">
+      <c r="G31" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.9,-77.002,11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="34">
         <v>-11.946</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="34">
         <v>-77.018000000000001</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="33">
         <v>18</v>
       </c>
-      <c r="G32" s="39" t="str">
+      <c r="G32" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.946,-77.018,11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="34">
         <v>-11.994999999999999</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="34">
         <v>-77.028000000000006</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="33">
         <v>18</v>
       </c>
-      <c r="G33" s="39" t="str">
+      <c r="G33" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.995,-77.028,11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="34">
         <v>-11.999000000000001</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="34">
         <v>-76.971000000000004</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="33">
         <v>18</v>
       </c>
-      <c r="G34" s="39" t="str">
+      <c r="G34" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-11.999,-76.971,11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="34">
         <v>-12.08</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="34">
         <v>-77.230999999999995</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="33">
         <v>19</v>
       </c>
-      <c r="G35" s="39" t="str">
+      <c r="G35" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.08,-77.231,11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="34">
         <v>-12.125</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="34">
         <v>-76.846999999999994</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="33">
         <v>20</v>
       </c>
-      <c r="G36" s="39" t="str">
+      <c r="G36" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.125,-76.847,11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="34">
         <v>-12.132428000000001</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="34">
         <v>-76.891829000000001</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="33">
         <v>20</v>
       </c>
-      <c r="G37" s="39" t="str">
+      <c r="G37" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.132428,-76.891829,11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="34">
         <v>-12.135</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="34">
         <v>-76.915000000000006</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="33">
         <v>20</v>
       </c>
-      <c r="G38" s="39" t="str">
+      <c r="G38" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.135,-76.915,11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="34">
         <v>-12.1576</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="34">
         <v>-76.905199999999994</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="33">
         <v>20</v>
       </c>
-      <c r="G39" s="39" t="str">
+      <c r="G39" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.1576,-76.9052,11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="34">
         <v>-12.186</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="34">
         <v>-76.825000000000003</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="33">
         <v>20</v>
       </c>
-      <c r="G40" s="39" t="str">
+      <c r="G40" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.186,-76.825,11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="34">
         <v>-12.196999999999999</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="34">
         <v>-76.774000000000001</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="33">
         <v>20</v>
       </c>
-      <c r="G41" s="39" t="str">
+      <c r="G41" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.197,-76.774,11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="34">
         <v>-12.202999999999999</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="34">
         <v>-76.885000000000005</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="33">
         <v>20</v>
       </c>
-      <c r="G42" s="39" t="str">
+      <c r="G42" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.203,-76.885,11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="34">
         <v>-12.255699999999999</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="34">
         <v>-76.781999999999996</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="33">
         <v>20</v>
       </c>
-      <c r="G43" s="39" t="str">
+      <c r="G43" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.2557,-76.782,11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="34">
         <v>-12.278</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="34">
         <v>-76.77</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="33">
         <v>20</v>
       </c>
-      <c r="G44" s="39" t="str">
+      <c r="G44" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.278,-76.77,11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="34">
         <v>-12.294684</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="34">
         <v>-76.723387000000002</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="33">
         <v>20</v>
       </c>
-      <c r="G45" s="39" t="str">
+      <c r="G45" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.294684,-76.723387,11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="34">
         <v>-12.308999999999999</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="34">
         <v>-76.703999999999994</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="33">
         <v>20</v>
       </c>
-      <c r="G46" s="39" t="str">
+      <c r="G46" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.309,-76.704,11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="34">
         <v>-12.339</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="34">
         <v>-76.751999999999995</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="33">
         <v>20</v>
       </c>
-      <c r="G47" s="39" t="str">
+      <c r="G47" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.339,-76.752,11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="34">
         <v>-12.366</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="34">
         <v>-76.697999999999993</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="33">
         <v>20</v>
       </c>
-      <c r="G48" s="39" t="str">
+      <c r="G48" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.366,-76.698,11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="36">
+      <c r="A49" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="34">
         <v>-12.452999999999999</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="34">
         <v>-76.718000000000004</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="33">
         <v>20</v>
       </c>
-      <c r="G49" s="39" t="str">
+      <c r="G49" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.453,-76.718,11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="36">
+      <c r="A50" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="34">
         <v>-12.528</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="34">
         <v>-76.63</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="35">
+      <c r="F50" s="33">
         <v>21</v>
       </c>
-      <c r="G50" s="39" t="str">
+      <c r="G50" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.528,-76.63,11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="36">
+      <c r="A51" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="34">
         <v>-12.5791</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="34">
         <v>-76.629599999999996</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="33">
         <v>21</v>
       </c>
-      <c r="G51" s="39" t="str">
+      <c r="G51" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.5791,-76.6296,11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="36">
+      <c r="A52" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="34">
         <v>-12.632300000000001</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="34">
         <v>-76.661799999999999</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="33">
         <v>21</v>
       </c>
-      <c r="G52" s="39" t="str">
+      <c r="G52" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.6323,-76.6618,11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="36">
+      <c r="A53" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="34">
         <v>-12.721</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="34">
         <v>-76.537999999999997</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="33">
         <v>21</v>
       </c>
-      <c r="G53" s="39" t="str">
+      <c r="G53" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.721,-76.538,11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="36">
+      <c r="A54" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="34">
         <v>-12.741300000000001</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="34">
         <v>-76.548100000000005</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="33">
         <v>21</v>
       </c>
-      <c r="G54" s="39" t="str">
+      <c r="G54" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.7413,-76.5481,11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" s="36">
+      <c r="A55" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="34">
         <v>-12.759973</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="34">
         <v>-76.468006000000003</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="33">
         <v>22</v>
       </c>
-      <c r="G55" s="39" t="str">
+      <c r="G55" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.759973,-76.468006,11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="36">
+      <c r="A56" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="34">
         <v>-12.837999999999999</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="34">
         <v>-76.453000000000003</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="33">
         <v>22</v>
       </c>
-      <c r="G56" s="39" t="str">
+      <c r="G56" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-12.838,-76.453,11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="36">
+      <c r="A57" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="34">
         <v>-13.136799999999999</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="34">
         <v>-76.1798</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="33">
         <v>23</v>
       </c>
-      <c r="G57" s="39" t="str">
+      <c r="G57" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-13.1368,-76.1798,11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="36">
+      <c r="A58" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="34">
         <v>-13.1793</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="34">
         <v>-76.241799999999998</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="33">
         <v>23</v>
       </c>
-      <c r="G58" s="39" t="str">
+      <c r="G58" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-13.1793,-76.2418,11</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="36">
+      <c r="A59" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" s="34">
         <v>-13.604772000000001</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="34">
         <v>-75.927231000000006</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="33">
         <v>24</v>
       </c>
-      <c r="G59" s="39" t="str">
+      <c r="G59" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-13.604772,-75.927231,11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B60" s="36">
+      <c r="A60" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="34">
         <v>-13.839700000000001</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="34">
         <v>-76.446799999999996</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="33">
         <v>25</v>
       </c>
-      <c r="G60" s="39" t="str">
+      <c r="G60" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-13.8397,-76.4468,11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="36">
+      <c r="A61" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="34">
         <v>-13.8866</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="34">
         <v>-76.3827</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="33">
         <v>25</v>
       </c>
-      <c r="G61" s="39" t="str">
+      <c r="G61" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-13.8866,-76.3827,11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="34">
         <v>-14.2797</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="34">
         <v>-76.198499999999996</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="33">
         <v>26</v>
       </c>
-      <c r="G62" s="39" t="str">
+      <c r="G62" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-14.2797,-76.1985,11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="34">
         <v>-14.356</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="34">
         <v>-76.114999999999995</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="33">
         <v>26</v>
       </c>
-      <c r="G63" s="39" t="str">
+      <c r="G63" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-14.356,-76.115,11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" s="36">
+      <c r="A64" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="34">
         <v>-14.702999999999999</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="34">
         <v>-75.738</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="33">
         <v>27</v>
       </c>
-      <c r="G64" s="39" t="str">
+      <c r="G64" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-14.703,-75.738,11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="34">
         <v>-15.1228</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="34">
         <v>-75.334400000000002</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="33">
         <v>28</v>
       </c>
-      <c r="G65" s="39" t="str">
+      <c r="G65" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-15.1228,-75.3344,11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B66" s="36">
+      <c r="A66" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="34">
         <v>-15.35</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="34">
         <v>-75.024000000000001</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="35">
+      <c r="F66" s="33">
         <v>29</v>
       </c>
-      <c r="G66" s="39" t="str">
+      <c r="G66" s="17" t="str">
         <f t="shared" si="0"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-15.35,-75.024,11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="34">
         <v>-15.380800000000001</v>
       </c>
-      <c r="C67" s="36">
+      <c r="C67" s="34">
         <v>-74.742400000000004</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="33">
         <v>30</v>
       </c>
-      <c r="G67" s="39" t="str">
-        <f t="shared" ref="G67:G116" si="1">"https://gistin.users.earthengine.app/view/fogoasis#llz=" &amp; B67 &amp; ","&amp;C67 &amp;",11"</f>
+      <c r="G67" s="17" t="str">
+        <f t="shared" ref="G67:G116" si="1">HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#llz=" &amp; B67 &amp; ","&amp;C67 &amp;",11")</f>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-15.3808,-74.7424,11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="36">
+      <c r="A68" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="34">
         <v>-15.782999999999999</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="34">
         <v>-74.332999999999998</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="33">
         <v>30</v>
       </c>
-      <c r="G68" s="39" t="str">
+      <c r="G68" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-15.783,-74.333,11</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B69" s="36">
+      <c r="A69" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="34">
         <v>-15.958024999999999</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="34">
         <v>-73.955006999999995</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="33">
         <v>31</v>
       </c>
-      <c r="G69" s="39" t="str">
+      <c r="G69" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-15.958025,-73.955007,11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B70" s="36">
+      <c r="A70" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="34">
         <v>-15.996214999999999</v>
       </c>
-      <c r="C70" s="36">
+      <c r="C70" s="34">
         <v>-73.933046000000004</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="33">
         <v>31</v>
       </c>
-      <c r="G70" s="39" t="str">
+      <c r="G70" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-15.996215,-73.933046,11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" s="36">
+      <c r="A71" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="34">
         <v>-16.216359000000001</v>
       </c>
-      <c r="C71" s="36">
+      <c r="C71" s="34">
         <v>-74.877069000000006</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="F71" s="35">
+      <c r="E71" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" s="33">
         <v>30</v>
       </c>
-      <c r="G71" s="39" t="str">
+      <c r="G71" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-16.216359,-74.877069,11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="34">
         <v>-16.251000000000001</v>
       </c>
-      <c r="C72" s="36">
+      <c r="C72" s="34">
         <v>-73.444999999999993</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="33">
         <v>32</v>
       </c>
-      <c r="G72" s="39" t="str">
+      <c r="G72" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-16.251,-73.445,11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="36">
+      <c r="B73" s="34">
         <v>-16.340786999999999</v>
       </c>
-      <c r="C73" s="36">
+      <c r="C73" s="34">
         <v>-73.076377300000004</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="33">
         <v>33</v>
       </c>
-      <c r="G73" s="39" t="str">
+      <c r="G73" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-16.340787,-73.0763773,11</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B74" s="36">
+      <c r="A74" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" s="34">
         <v>-16.424609</v>
       </c>
-      <c r="C74" s="36">
+      <c r="C74" s="34">
         <v>-72.970228000000006</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="33">
         <v>33</v>
       </c>
-      <c r="G74" s="39" t="str">
+      <c r="G74" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-16.424609,-72.970228,11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="36">
+      <c r="A75" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="34">
         <v>-16.96</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="34">
         <v>-72.082999999999998</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="33">
         <v>37</v>
       </c>
-      <c r="G75" s="39" t="str">
+      <c r="G75" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-16.96,-72.083,11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="36">
+      <c r="A76" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="34">
         <v>-16.972999999999999</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C76" s="34">
         <v>-71.982500000000002</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F76" s="35">
+      <c r="F76" s="33">
         <v>37</v>
       </c>
-      <c r="G76" s="39" t="str">
+      <c r="G76" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-16.973,-71.9825,11</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="B77" s="36">
+      <c r="A77" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="34">
         <v>-17.013280000000002</v>
       </c>
-      <c r="C77" s="36">
+      <c r="C77" s="34">
         <v>-71.7874348</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F77" s="35">
+      <c r="F77" s="33">
         <v>37</v>
       </c>
-      <c r="G77" s="39" t="str">
+      <c r="G77" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-17.01328,-71.7874348,11</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B78" s="36">
+      <c r="A78" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B78" s="34">
         <v>-17.059999999999999</v>
       </c>
-      <c r="C78" s="36">
+      <c r="C78" s="34">
         <v>-71.846999999999994</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="33">
         <v>37</v>
       </c>
-      <c r="G78" s="39" t="str">
+      <c r="G78" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-17.06,-71.847,11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="36">
+      <c r="A79" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="34">
         <v>-17.222000000000001</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C79" s="34">
         <v>-71.600999999999999</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="E79" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="33">
         <v>38</v>
       </c>
-      <c r="G79" s="39" t="str">
+      <c r="G79" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-17.222,-71.601,11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="34">
+        <v>-17.271000000000001</v>
+      </c>
+      <c r="C80" s="34">
+        <v>-71.45</v>
+      </c>
+      <c r="D80" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B80" s="36">
-        <v>-17.271000000000001</v>
-      </c>
-      <c r="C80" s="36">
-        <v>-71.45</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="35" t="s">
+      <c r="E80" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="33">
         <v>38</v>
       </c>
-      <c r="G80" s="39" t="str">
+      <c r="G80" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-17.271,-71.45,11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="36">
+      <c r="A81" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="34">
         <v>-17.702999999999999</v>
       </c>
-      <c r="C81" s="36">
+      <c r="C81" s="34">
         <v>-71.278000000000006</v>
       </c>
-      <c r="D81" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="35" t="s">
+      <c r="D81" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F81" s="33">
         <v>39</v>
       </c>
-      <c r="G81" s="39" t="str">
+      <c r="G81" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-17.703,-71.278,11</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B82" s="36">
+      <c r="A82" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="34">
         <v>-17.755199999999999</v>
       </c>
-      <c r="C82" s="36">
+      <c r="C82" s="34">
         <v>-70.521299999999997</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E82" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="33">
         <v>40</v>
       </c>
-      <c r="G82" s="39" t="str">
+      <c r="G82" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-17.7552,-70.5213,11</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="36">
+      <c r="A83" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="34">
         <v>-17.782599999999999</v>
       </c>
-      <c r="C83" s="36">
+      <c r="C83" s="34">
         <v>-71.098200000000006</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="33">
         <v>39</v>
       </c>
-      <c r="G83" s="39" t="str">
+      <c r="G83" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-17.7826,-71.0982,11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="36">
+      <c r="B84" s="34">
         <v>-17.833300000000001</v>
       </c>
-      <c r="C84" s="36">
+      <c r="C84" s="34">
         <v>-70.25</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F84" s="33">
         <v>40</v>
       </c>
-      <c r="G84" s="39" t="str">
+      <c r="G84" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-17.8333,-70.25,11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="36">
+      <c r="B85" s="34">
         <v>-18.006499999999999</v>
       </c>
-      <c r="C85" s="36">
+      <c r="C85" s="34">
         <v>-70.861599999999996</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E85" s="35" t="s">
+      <c r="E85" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="35">
+      <c r="F85" s="33">
         <v>41</v>
       </c>
-      <c r="G85" s="39" t="str">
+      <c r="G85" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-18.0065,-70.8616,11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="36">
+      <c r="A86" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" s="34">
         <v>-18.022300000000001</v>
       </c>
-      <c r="C86" s="36">
+      <c r="C86" s="34">
         <v>-70.833699999999993</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="35" t="s">
+      <c r="E86" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="35">
+      <c r="F86" s="33">
         <v>41</v>
       </c>
-      <c r="G86" s="39" t="str">
+      <c r="G86" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-18.0223,-70.8337,11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="34">
         <v>-18.366700000000002</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C87" s="34">
         <v>-70.066699999999997</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="35" t="s">
+      <c r="E87" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F87" s="35">
+      <c r="F87" s="33">
         <v>42</v>
       </c>
-      <c r="G87" s="39" t="str">
+      <c r="G87" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-18.3667,-70.0667,11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" s="36">
+      <c r="A88" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="34">
         <v>-18.533300000000001</v>
       </c>
-      <c r="C88" s="36">
+      <c r="C88" s="34">
         <v>-70.066699999999997</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="35" t="s">
+      <c r="E88" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="35">
+      <c r="F88" s="33">
         <v>42</v>
       </c>
-      <c r="G88" s="39" t="str">
+      <c r="G88" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-18.5333,-70.0667,11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B89" s="36">
+      <c r="A89" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="34">
         <v>-18.633299999999998</v>
       </c>
-      <c r="C89" s="36">
+      <c r="C89" s="34">
         <v>-70.3</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E89" s="35" t="s">
+      <c r="E89" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="33">
         <v>42</v>
       </c>
-      <c r="G89" s="39" t="str">
+      <c r="G89" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-18.6333,-70.3,11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="36">
+      <c r="A90" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="34">
         <v>-18.866700000000002</v>
       </c>
-      <c r="C90" s="36">
+      <c r="C90" s="34">
         <v>-70.0167</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E90" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F90" s="35">
+      <c r="F90" s="33">
         <v>42</v>
       </c>
-      <c r="G90" s="39" t="str">
+      <c r="G90" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-18.8667,-70.0167,11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="36">
+      <c r="A91" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="34">
         <v>-18.916699999999999</v>
       </c>
-      <c r="C91" s="36">
+      <c r="C91" s="34">
         <v>-70.3</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F91" s="35">
+      <c r="F91" s="33">
         <v>42</v>
       </c>
-      <c r="G91" s="39" t="str">
+      <c r="G91" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-18.9167,-70.3,11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B92" s="36">
+      <c r="A92" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="34">
         <v>-19.066700000000001</v>
       </c>
-      <c r="C92" s="36">
+      <c r="C92" s="34">
         <v>-70.083299999999994</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="35" t="s">
+      <c r="E92" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F92" s="35">
+      <c r="F92" s="33">
         <v>42</v>
       </c>
-      <c r="G92" s="39" t="str">
+      <c r="G92" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-19.0667,-70.0833,11</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B93" s="36">
+      <c r="A93" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="34">
         <v>-19.616700000000002</v>
       </c>
-      <c r="C93" s="36">
+      <c r="C93" s="34">
         <v>-70.183300000000003</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="35" t="s">
+      <c r="E93" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F93" s="35">
+      <c r="F93" s="33">
         <v>44</v>
       </c>
-      <c r="G93" s="39" t="str">
+      <c r="G93" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-19.6167,-70.1833,11</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" s="36">
+      <c r="A94" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="34">
         <v>-20.216699999999999</v>
       </c>
-      <c r="C94" s="36">
+      <c r="C94" s="34">
         <v>-70.011700000000005</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E94" s="35" t="s">
+      <c r="E94" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F94" s="35">
+      <c r="F94" s="33">
         <v>45</v>
       </c>
-      <c r="G94" s="39" t="str">
+      <c r="G94" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-20.2167,-70.0117,11</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="36">
+      <c r="A95" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="34">
         <v>-20.366700000000002</v>
       </c>
-      <c r="C95" s="36">
+      <c r="C95" s="34">
         <v>-70.133300000000006</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F95" s="35">
+      <c r="F95" s="33">
         <v>45</v>
       </c>
-      <c r="G95" s="39" t="str">
+      <c r="G95" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-20.3667,-70.1333,11</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="36">
+      <c r="A96" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="34">
         <v>-20.383299999999998</v>
       </c>
-      <c r="C96" s="36">
+      <c r="C96" s="34">
         <v>-70.099999999999994</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F96" s="35">
+      <c r="F96" s="33">
         <v>45</v>
       </c>
-      <c r="G96" s="39" t="str">
+      <c r="G96" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-20.3833,-70.1,11</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" s="36">
+      <c r="A97" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="34">
         <v>-20.5</v>
       </c>
-      <c r="C97" s="36">
+      <c r="C97" s="34">
         <v>-70.05</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F97" s="35">
+      <c r="F97" s="33">
         <v>46</v>
       </c>
-      <c r="G97" s="39" t="str">
+      <c r="G97" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-20.5,-70.05,11</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="35" t="s">
+      <c r="A98" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="36">
+      <c r="B98" s="34">
         <v>-20.816700000000001</v>
       </c>
-      <c r="C98" s="36">
+      <c r="C98" s="34">
         <v>-70.150000000000006</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="35" t="s">
+      <c r="E98" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F98" s="35">
+      <c r="F98" s="33">
         <v>46</v>
       </c>
-      <c r="G98" s="39" t="str">
+      <c r="G98" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-20.8167,-70.15,11</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" s="36">
+      <c r="A99" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="34">
         <v>-21.05</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="34">
         <v>-70.116699999999994</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E99" s="35" t="s">
+      <c r="E99" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F99" s="35">
+      <c r="F99" s="33">
         <v>47</v>
       </c>
-      <c r="G99" s="39" t="str">
+      <c r="G99" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-21.05,-70.1167,11</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="36">
+      <c r="A100" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="34">
         <v>-21.2667</v>
       </c>
-      <c r="C100" s="36">
+      <c r="C100" s="34">
         <v>-70.066699999999997</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="35" t="s">
+      <c r="E100" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F100" s="35">
+      <c r="F100" s="33">
         <v>47</v>
       </c>
-      <c r="G100" s="39" t="str">
+      <c r="G100" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-21.2667,-70.0667,11</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="B101" s="36">
+      <c r="A101" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="34">
         <v>-21.413599999999999</v>
       </c>
-      <c r="C101" s="36">
+      <c r="C101" s="34">
         <v>-69.962400000000002</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="35">
+      <c r="F101" s="33">
         <v>47</v>
       </c>
-      <c r="G101" s="39" t="str">
+      <c r="G101" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-21.4136,-69.9624,11</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B102" s="36">
+      <c r="A102" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="34">
         <v>-22.3</v>
       </c>
-      <c r="C102" s="36">
+      <c r="C102" s="34">
         <v>-70.216700000000003</v>
       </c>
-      <c r="D102" s="35" t="s">
+      <c r="D102" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E102" s="35" t="s">
+      <c r="E102" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="35">
+      <c r="F102" s="33">
         <v>49</v>
       </c>
-      <c r="G102" s="39" t="str">
+      <c r="G102" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-22.3,-70.2167,11</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="36">
+      <c r="A103" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="34">
         <v>-22.699200000000001</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="34">
         <v>-70.245800000000003</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F103" s="35">
+      <c r="F103" s="33">
         <v>49</v>
       </c>
-      <c r="G103" s="39" t="str">
+      <c r="G103" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-22.6992,-70.2458,11</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B104" s="36">
+      <c r="A104" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="34">
         <v>-23.4833</v>
       </c>
-      <c r="C104" s="36">
+      <c r="C104" s="34">
         <v>-70.583299999999994</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D104" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E104" s="35" t="s">
+      <c r="E104" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F104" s="35">
+      <c r="F104" s="33">
         <v>50</v>
       </c>
-      <c r="G104" s="39" t="str">
+      <c r="G104" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-23.4833,-70.5833,11</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B105" s="36">
+      <c r="A105" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="34">
         <v>-24.549900000000001</v>
       </c>
-      <c r="C105" s="36">
+      <c r="C105" s="34">
         <v>-70.564700000000002</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E105" s="35" t="s">
+      <c r="E105" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F105" s="35">
+      <c r="F105" s="33">
         <v>52</v>
       </c>
-      <c r="G105" s="39" t="str">
+      <c r="G105" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-24.5499,-70.5647,11</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B106" s="36">
+      <c r="A106" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="34">
         <v>-24.718699999999998</v>
       </c>
-      <c r="C106" s="36">
+      <c r="C106" s="34">
         <v>-70.561099999999996</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E106" s="35" t="s">
+      <c r="E106" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F106" s="35">
+      <c r="F106" s="33">
         <v>52</v>
       </c>
-      <c r="G106" s="39" t="str">
+      <c r="G106" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-24.7187,-70.5611,11</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="36">
+      <c r="A107" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="34">
         <v>-24.8</v>
       </c>
-      <c r="C107" s="36">
+      <c r="C107" s="34">
         <v>-70.4833</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E107" s="35" t="s">
+      <c r="E107" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F107" s="35">
+      <c r="F107" s="33">
         <v>52</v>
       </c>
-      <c r="G107" s="39" t="str">
+      <c r="G107" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-24.8,-70.4833,11</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="B108" s="36">
+      <c r="A108" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" s="34">
         <v>-24.9406</v>
       </c>
-      <c r="C108" s="36">
+      <c r="C108" s="34">
         <v>-70.498699999999999</v>
       </c>
-      <c r="D108" s="35" t="s">
+      <c r="D108" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E108" s="35" t="s">
+      <c r="E108" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F108" s="35">
+      <c r="F108" s="33">
         <v>53</v>
       </c>
-      <c r="G108" s="39" t="str">
+      <c r="G108" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-24.9406,-70.4987,11</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B109" s="36">
+      <c r="A109" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="34">
         <v>-24.9939</v>
       </c>
-      <c r="C109" s="36">
+      <c r="C109" s="34">
         <v>-70.436000000000007</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F109" s="35">
+      <c r="F109" s="33">
         <v>53</v>
       </c>
-      <c r="G109" s="39" t="str">
+      <c r="G109" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-24.9939,-70.436,11</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="35" t="s">
+      <c r="A110" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B110" s="36">
+      <c r="B110" s="34">
         <v>-25</v>
       </c>
-      <c r="C110" s="36">
+      <c r="C110" s="34">
         <v>-70.447299999999998</v>
       </c>
-      <c r="D110" s="35" t="s">
+      <c r="D110" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E110" s="35" t="s">
+      <c r="E110" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F110" s="35">
+      <c r="F110" s="33">
         <v>53</v>
       </c>
-      <c r="G110" s="39" t="str">
+      <c r="G110" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-25,-70.4473,11</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="35" t="s">
+      <c r="A111" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="36">
+      <c r="B111" s="34">
         <v>-25.214500000000001</v>
       </c>
-      <c r="C111" s="36">
+      <c r="C111" s="34">
         <v>-70.436700000000002</v>
       </c>
-      <c r="D111" s="35" t="s">
+      <c r="D111" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E111" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F111" s="35">
+      <c r="F111" s="33">
         <v>54</v>
       </c>
-      <c r="G111" s="39" t="str">
+      <c r="G111" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-25.2145,-70.4367,11</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="B112" s="36">
+      <c r="A112" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="34">
         <v>-26.1355</v>
       </c>
-      <c r="C112" s="36">
+      <c r="C112" s="34">
         <v>-70.605099999999993</v>
       </c>
-      <c r="D112" s="35" t="s">
+      <c r="D112" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E112" s="35" t="s">
+      <c r="E112" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F112" s="35">
+      <c r="F112" s="33">
         <v>56</v>
       </c>
-      <c r="G112" s="39" t="str">
+      <c r="G112" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-26.1355,-70.6051,11</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B113" s="36">
+      <c r="A113" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="34">
         <v>-26.533300000000001</v>
       </c>
-      <c r="C113" s="36">
+      <c r="C113" s="34">
         <v>-70.599999999999994</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D113" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F113" s="35">
+      <c r="F113" s="33">
         <v>57</v>
       </c>
-      <c r="G113" s="39" t="str">
+      <c r="G113" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-26.5333,-70.6,11</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="35" t="s">
+      <c r="A114" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B114" s="36">
+      <c r="B114" s="34">
         <v>-28.170356999999999</v>
       </c>
-      <c r="C114" s="36">
+      <c r="C114" s="34">
         <v>-71.129292000000007</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E114" s="35" t="s">
+      <c r="E114" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F114" s="35">
+      <c r="F114" s="33">
         <v>60</v>
       </c>
-      <c r="G114" s="39" t="str">
+      <c r="G114" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-28.170357,-71.129292,11</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B115" s="36">
+      <c r="B115" s="34">
         <v>-28.487100000000002</v>
       </c>
-      <c r="C115" s="36">
+      <c r="C115" s="34">
         <v>-71.223600000000005</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E115" s="35" t="s">
+      <c r="E115" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G115" s="39" t="str">
+      <c r="G115" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-28.4871,-71.2236,11</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B116" s="36">
+      <c r="B116" s="34">
         <v>-29.45</v>
       </c>
-      <c r="C116" s="36">
+      <c r="C116" s="34">
         <v>-71.25</v>
       </c>
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E116" s="35" t="s">
+      <c r="E116" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G116" s="39" t="str">
+      <c r="G116" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://gistin.users.earthengine.app/view/fogoasis#llz=-29.45,-71.25,11</v>
       </c>
@@ -7373,8 +7369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AED242-02F2-412A-A9B5-5C3BC04E11CD}">
   <dimension ref="A1:V998"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -7383,7 +7379,7 @@
     <col min="2" max="2" width="27" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="120.4140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55" style="12" customWidth="1"/>
     <col min="7" max="22" width="7.58203125" style="6" customWidth="1"/>
     <col min="23" max="16384" width="12.58203125" style="6"/>
@@ -7391,19 +7387,19 @@
   <sheetData>
     <row r="1" spans="1:22" ht="62" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>246</v>
-      </c>
       <c r="C1" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
@@ -7431,16 +7427,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="17" t="str">
-        <f>"https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A2</f>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=1</v>
-      </c>
-      <c r="F2" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A2,"Region ID "&amp;A2)</f>
+        <v>Region ID 1</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7466,16 +7461,15 @@
         <v>3</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="17" t="str">
-        <f t="shared" ref="E3:E62" si="0">"https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A3</f>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=2</v>
-      </c>
-      <c r="F3" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A3,"Region ID "&amp;A3)</f>
+        <v>Region ID 2</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -7501,14 +7495,14 @@
         <v>5</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=3</v>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A4,"Region ID "&amp;A4)</f>
+        <v>Region ID 3</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -7532,19 +7526,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=4</v>
-      </c>
-      <c r="F5" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A5,"Region ID "&amp;A5)</f>
+        <v>Region ID 4</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -7570,16 +7563,15 @@
         <v>7</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=5</v>
-      </c>
-      <c r="F6" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A6,"Region ID "&amp;A6)</f>
+        <v>Region ID 5</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7605,16 +7597,15 @@
         <v>8</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=6</v>
-      </c>
-      <c r="F7" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A7,"Region ID "&amp;A7)</f>
+        <v>Region ID 6</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7646,10 +7637,9 @@
         <v>6</v>
       </c>
       <c r="E8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=7</v>
-      </c>
-      <c r="F8" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A8,"Region ID "&amp;A8)</f>
+        <v>Region ID 7</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -7667,7 +7657,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" s="33" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -7675,32 +7665,31 @@
         <v>11</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=8</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
+      <c r="E9" s="17" t="str">
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A9,"Region ID "&amp;A9)</f>
+        <v>Region ID 8</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
     </row>
     <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
@@ -7716,10 +7705,9 @@
         <v>14</v>
       </c>
       <c r="E10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=9</v>
-      </c>
-      <c r="F10" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A10,"Region ID "&amp;A10)</f>
+        <v>Region ID 9</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7745,16 +7733,15 @@
         <v>15</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=10</v>
-      </c>
-      <c r="F11" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A11,"Region ID "&amp;A11)</f>
+        <v>Region ID 10</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -7786,10 +7773,9 @@
         <v>14</v>
       </c>
       <c r="E12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=11</v>
-      </c>
-      <c r="F12" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A12,"Region ID "&amp;A12)</f>
+        <v>Region ID 11</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -7815,16 +7801,15 @@
         <v>18</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=12</v>
-      </c>
-      <c r="F13" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A13,"Region ID "&amp;A13)</f>
+        <v>Region ID 12</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7856,10 +7841,9 @@
         <v>14</v>
       </c>
       <c r="E14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=13</v>
-      </c>
-      <c r="F14" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A14,"Region ID "&amp;A14)</f>
+        <v>Region ID 13</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -7885,16 +7869,15 @@
         <v>21</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=14</v>
-      </c>
-      <c r="F15" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A15,"Region ID "&amp;A15)</f>
+        <v>Region ID 14</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -7920,16 +7903,15 @@
         <v>23</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=15</v>
-      </c>
-      <c r="F16" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A16,"Region ID "&amp;A16)</f>
+        <v>Region ID 15</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -7955,16 +7937,15 @@
         <v>25</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=16</v>
-      </c>
-      <c r="F17" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A17,"Region ID "&amp;A17)</f>
+        <v>Region ID 16</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -7987,19 +7968,18 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=17</v>
-      </c>
-      <c r="F18" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A18,"Region ID "&amp;A18)</f>
+        <v>Region ID 17</v>
+      </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -8025,16 +8005,15 @@
         <v>71</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=18</v>
-      </c>
-      <c r="F19" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A19,"Region ID "&amp;A19)</f>
+        <v>Region ID 18</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -8066,10 +8045,9 @@
         <v>24</v>
       </c>
       <c r="E20" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=19</v>
-      </c>
-      <c r="F20" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A20,"Region ID "&amp;A20)</f>
+        <v>Region ID 19</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -8092,19 +8070,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=20</v>
-      </c>
-      <c r="F21" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A21,"Region ID "&amp;A21)</f>
+        <v>Region ID 20</v>
+      </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -8130,16 +8107,15 @@
         <v>27</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=21</v>
-      </c>
-      <c r="F22" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A22,"Region ID "&amp;A22)</f>
+        <v>Region ID 21</v>
+      </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -8165,16 +8141,15 @@
         <v>28</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=22</v>
-      </c>
-      <c r="F23" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A23,"Region ID "&amp;A23)</f>
+        <v>Region ID 22</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -8200,16 +8175,15 @@
         <v>29</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E24" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=23</v>
-      </c>
-      <c r="F24" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A24,"Region ID "&amp;A24)</f>
+        <v>Region ID 23</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -8232,19 +8206,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=24</v>
-      </c>
-      <c r="F25" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A25,"Region ID "&amp;A25)</f>
+        <v>Region ID 24</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -8270,16 +8243,15 @@
         <v>31</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=25</v>
-      </c>
-      <c r="F26" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A26,"Region ID "&amp;A26)</f>
+        <v>Region ID 25</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -8305,16 +8277,15 @@
         <v>32</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=26</v>
-      </c>
-      <c r="F27" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A27,"Region ID "&amp;A27)</f>
+        <v>Region ID 26</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -8340,16 +8311,15 @@
         <v>33</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=27</v>
-      </c>
-      <c r="F28" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A28,"Region ID "&amp;A28)</f>
+        <v>Region ID 27</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -8375,16 +8345,15 @@
         <v>34</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=28</v>
-      </c>
-      <c r="F29" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A29,"Region ID "&amp;A29)</f>
+        <v>Region ID 28</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -8410,16 +8379,15 @@
         <v>35</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E30" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=29</v>
-      </c>
-      <c r="F30" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A30,"Region ID "&amp;A30)</f>
+        <v>Region ID 29</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -8442,19 +8410,18 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E31" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=30</v>
-      </c>
-      <c r="F31" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A31,"Region ID "&amp;A31)</f>
+        <v>Region ID 30</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -8480,16 +8447,15 @@
         <v>38</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=31</v>
-      </c>
-      <c r="F32" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A32,"Region ID "&amp;A32)</f>
+        <v>Region ID 31</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -8515,16 +8481,15 @@
         <v>39</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=32</v>
-      </c>
-      <c r="F33" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A33,"Region ID "&amp;A33)</f>
+        <v>Region ID 32</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -8550,16 +8515,15 @@
         <v>40</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=33</v>
-      </c>
-      <c r="F34" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A34,"Region ID "&amp;A34)</f>
+        <v>Region ID 33</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -8585,16 +8549,15 @@
         <v>41</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=34</v>
-      </c>
-      <c r="F35" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A35,"Region ID "&amp;A35)</f>
+        <v>Region ID 34</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -8620,16 +8583,15 @@
         <v>42</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=35</v>
-      </c>
-      <c r="F36" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A36,"Region ID "&amp;A36)</f>
+        <v>Region ID 35</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -8655,16 +8617,15 @@
         <v>43</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=36</v>
-      </c>
-      <c r="F37" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A37,"Region ID "&amp;A37)</f>
+        <v>Region ID 36</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -8690,16 +8651,15 @@
         <v>44</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=37</v>
-      </c>
-      <c r="F38" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A38,"Region ID "&amp;A38)</f>
+        <v>Region ID 37</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -8722,19 +8682,18 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E39" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=38</v>
-      </c>
-      <c r="F39" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A39,"Region ID "&amp;A39)</f>
+        <v>Region ID 38</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -8757,19 +8716,18 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E40" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=39</v>
-      </c>
-      <c r="F40" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A40,"Region ID "&amp;A40)</f>
+        <v>Region ID 39</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -8795,16 +8753,15 @@
         <v>45</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=40</v>
-      </c>
-      <c r="F41" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A41,"Region ID "&amp;A41)</f>
+        <v>Region ID 40</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -8830,16 +8787,15 @@
         <v>47</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E42" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=41</v>
-      </c>
-      <c r="F42" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A42,"Region ID "&amp;A42)</f>
+        <v>Region ID 41</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -8860,7 +8816,7 @@
     <row r="43" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="27"/>
       <c r="B43" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>48</v>
@@ -8868,10 +8824,10 @@
       <c r="D43" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="5"/>
+      <c r="E43" s="17" t="str">
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A43,"Region ID "&amp;A43)</f>
+        <v xml:space="preserve">Region ID </v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -8894,19 +8850,18 @@
         <v>42</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>50</v>
       </c>
       <c r="E44" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=42</v>
-      </c>
-      <c r="F44" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A44,"Region ID "&amp;A44)</f>
+        <v>Region ID 42</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -8932,16 +8887,15 @@
         <v>51</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=43</v>
-      </c>
-      <c r="F45" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A45,"Region ID "&amp;A45)</f>
+        <v>Region ID 43</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -8967,16 +8921,15 @@
         <v>53</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E46" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=44</v>
-      </c>
-      <c r="F46" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A46,"Region ID "&amp;A46)</f>
+        <v>Region ID 44</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -9002,16 +8955,15 @@
         <v>54</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=45</v>
-      </c>
-      <c r="F47" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A47,"Region ID "&amp;A47)</f>
+        <v>Region ID 45</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -9037,16 +8989,15 @@
         <v>55</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E48" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=46</v>
-      </c>
-      <c r="F48" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A48,"Region ID "&amp;A48)</f>
+        <v>Region ID 46</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -9072,16 +9023,15 @@
         <v>56</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E49" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=47</v>
-      </c>
-      <c r="F49" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A49,"Region ID "&amp;A49)</f>
+        <v>Region ID 47</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -9107,16 +9057,15 @@
         <v>57</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=48</v>
-      </c>
-      <c r="F50" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A50,"Region ID "&amp;A50)</f>
+        <v>Region ID 48</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -9142,16 +9091,15 @@
         <v>59</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E51" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=49</v>
-      </c>
-      <c r="F51" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A51,"Region ID "&amp;A51)</f>
+        <v>Region ID 49</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -9174,19 +9122,18 @@
         <v>50</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E52" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=50</v>
-      </c>
-      <c r="F52" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A52,"Region ID "&amp;A52)</f>
+        <v>Region ID 50</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -9212,16 +9159,15 @@
         <v>60</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E53" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=51</v>
-      </c>
-      <c r="F53" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A53,"Region ID "&amp;A53)</f>
+        <v>Region ID 51</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -9247,16 +9193,15 @@
         <v>61</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E54" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=52</v>
-      </c>
-      <c r="F54" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A54,"Region ID "&amp;A54)</f>
+        <v>Region ID 52</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -9282,16 +9227,15 @@
         <v>62</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=53</v>
-      </c>
-      <c r="F55" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A55,"Region ID "&amp;A55)</f>
+        <v>Region ID 53</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -9314,19 +9258,18 @@
         <v>54</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E56" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=54</v>
-      </c>
-      <c r="F56" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A56,"Region ID "&amp;A56)</f>
+        <v>Region ID 54</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -9352,16 +9295,15 @@
         <v>63</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=55</v>
-      </c>
-      <c r="F57" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A57,"Region ID "&amp;A57)</f>
+        <v>Region ID 55</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -9387,16 +9329,15 @@
         <v>65</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E58" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=56</v>
-      </c>
-      <c r="F58" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A58,"Region ID "&amp;A58)</f>
+        <v>Region ID 56</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -9422,16 +9363,15 @@
         <v>66</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E59" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=57</v>
-      </c>
-      <c r="F59" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A59,"Region ID "&amp;A59)</f>
+        <v>Region ID 57</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -9457,16 +9397,15 @@
         <v>68</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E60" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=58</v>
-      </c>
-      <c r="F60" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A60,"Region ID "&amp;A60)</f>
+        <v>Region ID 58</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -9492,16 +9431,15 @@
         <v>69</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E61" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=59</v>
-      </c>
-      <c r="F61" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A61,"Region ID "&amp;A61)</f>
+        <v>Region ID 59</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -9527,16 +9465,15 @@
         <v>70</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E62" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://gistin.users.earthengine.app/view/fogoasis#regionid=60</v>
-      </c>
-      <c r="F62" s="5"/>
+        <f>HYPERLINK("https://gistin.users.earthengine.app/view/fogoasis#regionid=" &amp; A62,"Region ID "&amp;A62)</f>
+        <v>Region ID 60</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -32019,13 +31956,8 @@
       <c r="V998" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="regionid=1" display="https://gistin.users.earthengine.app/view/fogoasis#regionid=1" xr:uid="{6726D556-915A-488E-A772-7C2850E8973D}"/>
-    <hyperlink ref="E3:E62" r:id="rId2" location="regionid=1" display="https://gistin.users.earthengine.app/view/fogoasis#regionid=1" xr:uid="{620560E9-C615-4D81-BE43-154B0DE5D7E0}"/>
-    <hyperlink ref="E43" r:id="rId3" location="regionid=41" xr:uid="{E69C9195-6DAC-4497-AB30-7EE641AA7034}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32033,7 +31965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29336DB9-F040-4CA2-8599-B53A1546F418}">
   <dimension ref="A1:BJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -32043,1690 +31975,1690 @@
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:62" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="39">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39">
+        <v>2</v>
+      </c>
+      <c r="E1" s="39">
+        <v>3</v>
+      </c>
+      <c r="F1" s="39">
+        <v>4</v>
+      </c>
+      <c r="G1" s="39">
+        <v>5</v>
+      </c>
+      <c r="H1" s="39">
+        <v>6</v>
+      </c>
+      <c r="I1" s="39">
+        <v>7</v>
+      </c>
+      <c r="J1" s="39">
+        <v>8</v>
+      </c>
+      <c r="K1" s="39">
+        <v>9</v>
+      </c>
+      <c r="L1" s="39">
+        <v>10</v>
+      </c>
+      <c r="M1" s="39">
+        <v>11</v>
+      </c>
+      <c r="N1" s="39">
+        <v>12</v>
+      </c>
+      <c r="O1" s="39">
+        <v>13</v>
+      </c>
+      <c r="P1" s="39">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="39">
+        <v>15</v>
+      </c>
+      <c r="R1" s="39">
+        <v>16</v>
+      </c>
+      <c r="S1" s="39">
+        <v>17</v>
+      </c>
+      <c r="T1" s="39">
+        <v>18</v>
+      </c>
+      <c r="U1" s="39">
+        <v>19</v>
+      </c>
+      <c r="V1" s="39">
+        <v>20</v>
+      </c>
+      <c r="W1" s="39">
+        <v>21</v>
+      </c>
+      <c r="X1" s="39">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="39">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="39">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="39">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="39">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="39">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="39">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="39">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="39">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="39">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="39">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="39">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="39">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="39">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="39">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="39">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="39">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="39">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="39">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="39">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="39">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="39">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="39">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="39">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="39">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="39">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="39">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="39">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="39">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="39">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="39">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="39">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="39">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="39">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="39">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="39">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="39">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="39">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="37">
+        <v>60.5625</v>
+      </c>
+      <c r="D2" s="37">
+        <v>165.625</v>
+      </c>
+      <c r="E2" s="37">
+        <v>32.3125</v>
+      </c>
+      <c r="F2" s="37">
+        <v>41.5</v>
+      </c>
+      <c r="G2" s="37">
+        <v>41.8125</v>
+      </c>
+      <c r="H2" s="37">
+        <v>28.625</v>
+      </c>
+      <c r="I2" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="J2" s="37">
+        <v>45.75</v>
+      </c>
+      <c r="K2" s="37">
+        <v>5.75</v>
+      </c>
+      <c r="L2" s="37">
+        <v>63.5625</v>
+      </c>
+      <c r="M2" s="37">
+        <v>8.9375</v>
+      </c>
+      <c r="N2" s="37">
+        <v>156.5</v>
+      </c>
+      <c r="O2" s="37">
+        <v>58.1875</v>
+      </c>
+      <c r="P2" s="37">
+        <v>233.3125</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>218.625</v>
+      </c>
+      <c r="R2" s="37">
+        <v>230.0625</v>
+      </c>
+      <c r="S2" s="37">
+        <v>235.0625</v>
+      </c>
+      <c r="T2" s="37">
+        <v>78.1875</v>
+      </c>
+      <c r="U2" s="37">
+        <v>4.6875</v>
+      </c>
+      <c r="V2" s="37">
+        <v>246.1875</v>
+      </c>
+      <c r="W2" s="37">
+        <v>129.8125</v>
+      </c>
+      <c r="X2" s="37">
+        <v>113.0625</v>
+      </c>
+      <c r="Y2" s="37">
+        <v>199.4375</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>237.3125</v>
+      </c>
+      <c r="AA2" s="37">
+        <v>65.1875</v>
+      </c>
+      <c r="AB2" s="37">
+        <v>51.0625</v>
+      </c>
+      <c r="AC2" s="37">
+        <v>64.5</v>
+      </c>
+      <c r="AD2" s="37">
+        <v>41.1875</v>
+      </c>
+      <c r="AE2" s="37">
+        <v>71.8125</v>
+      </c>
+      <c r="AF2" s="37">
+        <v>170.0625</v>
+      </c>
+      <c r="AG2" s="37">
+        <v>318.4375</v>
+      </c>
+      <c r="AH2" s="37">
+        <v>283.1875</v>
+      </c>
+      <c r="AI2" s="37">
+        <v>148.25</v>
+      </c>
+      <c r="AJ2" s="37">
+        <v>254.25</v>
+      </c>
+      <c r="AK2" s="37">
+        <v>73.25</v>
+      </c>
+      <c r="AL2" s="37">
+        <v>79.4375</v>
+      </c>
+      <c r="AM2" s="37">
+        <v>126.875</v>
+      </c>
+      <c r="AN2" s="37">
+        <v>185.4375</v>
+      </c>
+      <c r="AO2" s="37">
+        <v>194.0625</v>
+      </c>
+      <c r="AP2" s="37">
+        <v>328.9375</v>
+      </c>
+      <c r="AQ2" s="37">
+        <v>57.25</v>
+      </c>
+      <c r="AR2" s="37">
+        <v>358.5</v>
+      </c>
+      <c r="AS2" s="37">
+        <v>356.8125</v>
+      </c>
+      <c r="AT2" s="37">
+        <v>157.6875</v>
+      </c>
+      <c r="AU2" s="37">
+        <v>30.6875</v>
+      </c>
+      <c r="AV2" s="37">
+        <v>52</v>
+      </c>
+      <c r="AW2" s="37">
+        <v>36.0625</v>
+      </c>
+      <c r="AX2" s="37">
+        <v>76.6875</v>
+      </c>
+      <c r="AY2" s="37">
+        <v>229</v>
+      </c>
+      <c r="AZ2" s="37">
+        <v>86.9375</v>
+      </c>
+      <c r="BA2" s="37">
+        <v>91.25</v>
+      </c>
+      <c r="BB2" s="37">
+        <v>66.375</v>
+      </c>
+      <c r="BC2" s="37">
+        <v>57.6875</v>
+      </c>
+      <c r="BD2" s="37">
+        <v>286.375</v>
+      </c>
+      <c r="BE2" s="37">
+        <v>188.0625</v>
+      </c>
+      <c r="BF2" s="37">
+        <v>150.5625</v>
+      </c>
+      <c r="BG2" s="37">
+        <v>450.8125</v>
+      </c>
+      <c r="BH2" s="37">
+        <v>651</v>
+      </c>
+      <c r="BI2" s="37">
+        <v>1451</v>
+      </c>
+      <c r="BJ2" s="37">
+        <v>920.0625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="37">
+        <v>144.625</v>
+      </c>
+      <c r="D3" s="37">
+        <v>32.4375</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="37">
+        <v>4.6875</v>
+      </c>
+      <c r="G3" s="37">
+        <v>13.375</v>
+      </c>
+      <c r="H3" s="37">
+        <v>38.4375</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="J3" s="37">
+        <v>18.9375</v>
+      </c>
+      <c r="K3" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="L3" s="37">
+        <v>42.6875</v>
+      </c>
+      <c r="M3" s="37">
+        <v>6.5625</v>
+      </c>
+      <c r="N3" s="37">
+        <v>23.6875</v>
+      </c>
+      <c r="O3" s="37">
+        <v>13.0625</v>
+      </c>
+      <c r="P3" s="37">
+        <v>45.6875</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>63.5625</v>
+      </c>
+      <c r="R3" s="37">
+        <v>55.6875</v>
+      </c>
+      <c r="S3" s="37">
+        <v>64.1875</v>
+      </c>
+      <c r="T3" s="37">
+        <v>47.625</v>
+      </c>
+      <c r="U3" s="37">
+        <v>2.1875</v>
+      </c>
+      <c r="V3" s="37">
+        <v>81.875</v>
+      </c>
+      <c r="W3" s="37">
+        <v>39.125</v>
+      </c>
+      <c r="X3" s="37">
+        <v>40.4375</v>
+      </c>
+      <c r="Y3" s="37">
+        <v>36.125</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>22.875</v>
+      </c>
+      <c r="AA3" s="37">
+        <v>1.1875</v>
+      </c>
+      <c r="AB3" s="37">
+        <v>0.9375</v>
+      </c>
+      <c r="AC3" s="37">
+        <v>13.75</v>
+      </c>
+      <c r="AD3" s="37">
+        <v>8.375</v>
+      </c>
+      <c r="AE3" s="37">
+        <v>17</v>
+      </c>
+      <c r="AF3" s="37">
+        <v>26.0625</v>
+      </c>
+      <c r="AG3" s="37">
+        <v>36.375</v>
+      </c>
+      <c r="AH3" s="37">
+        <v>27.5625</v>
+      </c>
+      <c r="AI3" s="37">
+        <v>21.9375</v>
+      </c>
+      <c r="AJ3" s="37">
+        <v>67.6875</v>
+      </c>
+      <c r="AK3" s="37">
+        <v>21.5</v>
+      </c>
+      <c r="AL3" s="37">
+        <v>10.875</v>
+      </c>
+      <c r="AM3" s="37">
+        <v>29.75</v>
+      </c>
+      <c r="AN3" s="37">
+        <v>27.25</v>
+      </c>
+      <c r="AO3" s="37">
+        <v>29.125</v>
+      </c>
+      <c r="AP3" s="37">
+        <v>43.125</v>
+      </c>
+      <c r="AQ3" s="37">
+        <v>14.875</v>
+      </c>
+      <c r="AR3" s="37">
+        <v>19.4375</v>
+      </c>
+      <c r="AS3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="AU3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AX3" s="37">
+        <v>1.8125</v>
+      </c>
+      <c r="AY3" s="37">
+        <v>14</v>
+      </c>
+      <c r="AZ3" s="37">
+        <v>14.875</v>
+      </c>
+      <c r="BA3" s="37">
+        <v>8.875</v>
+      </c>
+      <c r="BB3" s="37">
+        <v>32.125</v>
+      </c>
+      <c r="BC3" s="37">
+        <v>14.3125</v>
+      </c>
+      <c r="BD3" s="37">
+        <v>84.75</v>
+      </c>
+      <c r="BE3" s="37">
+        <v>34.0625</v>
+      </c>
+      <c r="BF3" s="37">
+        <v>33.625</v>
+      </c>
+      <c r="BG3" s="37">
+        <v>81.3125</v>
+      </c>
+      <c r="BH3" s="37">
+        <v>103.5625</v>
+      </c>
+      <c r="BI3" s="37">
+        <v>363.0625</v>
+      </c>
+      <c r="BJ3" s="37">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C4" s="37">
+        <v>251</v>
+      </c>
+      <c r="D4" s="37">
+        <v>23.5</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="37">
+        <v>2.625</v>
+      </c>
+      <c r="G4" s="37">
+        <v>12.3125</v>
+      </c>
+      <c r="H4" s="37">
+        <v>65.5</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="37">
+        <v>21.875</v>
+      </c>
+      <c r="K4" s="37">
+        <v>2.9375</v>
+      </c>
+      <c r="L4" s="37">
+        <v>66.625</v>
+      </c>
+      <c r="M4" s="37">
+        <v>6.1875</v>
+      </c>
+      <c r="N4" s="37">
+        <v>5.875</v>
+      </c>
+      <c r="O4" s="37">
+        <v>6.1875</v>
+      </c>
+      <c r="P4" s="37">
+        <v>44.4375</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>53.625</v>
+      </c>
+      <c r="R4" s="37">
+        <v>67.1875</v>
+      </c>
+      <c r="S4" s="37">
+        <v>44.6875</v>
+      </c>
+      <c r="T4" s="37">
+        <v>47</v>
+      </c>
+      <c r="U4" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="V4" s="37">
+        <v>74.25</v>
+      </c>
+      <c r="W4" s="37">
+        <v>37.0625</v>
+      </c>
+      <c r="X4" s="37">
+        <v>47.625</v>
+      </c>
+      <c r="Y4" s="37">
+        <v>34.8125</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>23.25</v>
+      </c>
+      <c r="AA4" s="37">
+        <v>0.3125</v>
+      </c>
+      <c r="AB4" s="37">
+        <v>0.9375</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>11.6875</v>
+      </c>
+      <c r="AD4" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="AE4" s="37">
+        <v>12.5</v>
+      </c>
+      <c r="AF4" s="37">
+        <v>27.0625</v>
+      </c>
+      <c r="AG4" s="37">
+        <v>40.625</v>
+      </c>
+      <c r="AH4" s="37">
+        <v>36.6875</v>
+      </c>
+      <c r="AI4" s="37">
+        <v>25.0625</v>
+      </c>
+      <c r="AJ4" s="37">
+        <v>73.6875</v>
+      </c>
+      <c r="AK4" s="37">
+        <v>34.8125</v>
+      </c>
+      <c r="AL4" s="37">
+        <v>17.4375</v>
+      </c>
+      <c r="AM4" s="37">
+        <v>37.75</v>
+      </c>
+      <c r="AN4" s="37">
+        <v>25.25</v>
+      </c>
+      <c r="AO4" s="37">
+        <v>31.6875</v>
+      </c>
+      <c r="AP4" s="37">
+        <v>45.625</v>
+      </c>
+      <c r="AQ4" s="37">
+        <v>20.8125</v>
+      </c>
+      <c r="AR4" s="37">
+        <v>6.875</v>
+      </c>
+      <c r="AS4" s="37">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AU4" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AV4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AY4" s="37">
+        <v>4.75</v>
+      </c>
+      <c r="AZ4" s="37">
+        <v>6.125</v>
+      </c>
+      <c r="BA4" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="BB4" s="37">
+        <v>30.25</v>
+      </c>
+      <c r="BC4" s="37">
+        <v>22.0625</v>
+      </c>
+      <c r="BD4" s="37">
+        <v>125.1875</v>
+      </c>
+      <c r="BE4" s="37">
+        <v>38.5625</v>
+      </c>
+      <c r="BF4" s="37">
+        <v>51.5</v>
+      </c>
+      <c r="BG4" s="37">
+        <v>88.125</v>
+      </c>
+      <c r="BH4" s="37">
+        <v>103.1875</v>
+      </c>
+      <c r="BI4" s="37">
+        <v>148.3125</v>
+      </c>
+      <c r="BJ4" s="37">
+        <v>1173.0625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="42">
-        <v>1</v>
-      </c>
-      <c r="D1" s="42">
-        <v>2</v>
-      </c>
-      <c r="E1" s="42">
-        <v>3</v>
-      </c>
-      <c r="F1" s="42">
-        <v>4</v>
-      </c>
-      <c r="G1" s="42">
+      <c r="C5" s="37">
+        <v>231.3125</v>
+      </c>
+      <c r="D5" s="37">
+        <v>3.1875</v>
+      </c>
+      <c r="E5" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F5" s="37">
+        <v>2.875</v>
+      </c>
+      <c r="G5" s="37">
+        <v>17.375</v>
+      </c>
+      <c r="H5" s="37">
+        <v>88</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37">
+        <v>31.375</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="L5" s="37">
+        <v>40.8125</v>
+      </c>
+      <c r="M5" s="37">
+        <v>4.125</v>
+      </c>
+      <c r="N5" s="37">
+        <v>4.9375</v>
+      </c>
+      <c r="O5" s="37">
+        <v>1.3125</v>
+      </c>
+      <c r="P5" s="37">
+        <v>86.25</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>82.75</v>
+      </c>
+      <c r="R5" s="37">
+        <v>125.125</v>
+      </c>
+      <c r="S5" s="37">
+        <v>73.6875</v>
+      </c>
+      <c r="T5" s="37">
+        <v>39.625</v>
+      </c>
+      <c r="U5" s="37">
+        <v>0.1875</v>
+      </c>
+      <c r="V5" s="37">
+        <v>128.25</v>
+      </c>
+      <c r="W5" s="37">
+        <v>66.75</v>
+      </c>
+      <c r="X5" s="37">
+        <v>89.4375</v>
+      </c>
+      <c r="Y5" s="37">
+        <v>68.375</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>41.125</v>
+      </c>
+      <c r="AA5" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB5" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>14.1875</v>
+      </c>
+      <c r="AD5" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>11.9375</v>
+      </c>
+      <c r="AF5" s="37">
+        <v>54.3125</v>
+      </c>
+      <c r="AG5" s="37">
+        <v>78.625</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>60.1875</v>
+      </c>
+      <c r="AI5" s="37">
+        <v>51.75</v>
+      </c>
+      <c r="AJ5" s="37">
+        <v>70.9375</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>128.8125</v>
+      </c>
+      <c r="AL5" s="37">
+        <v>23.3125</v>
+      </c>
+      <c r="AM5" s="37">
+        <v>58.8125</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>45.3125</v>
+      </c>
+      <c r="AO5" s="37">
+        <v>59.5</v>
+      </c>
+      <c r="AP5" s="37">
+        <v>48.8125</v>
+      </c>
+      <c r="AQ5" s="37">
+        <v>40.5625</v>
+      </c>
+      <c r="AR5" s="37">
+        <v>1.375</v>
+      </c>
+      <c r="AS5" s="37">
+        <v>0.1875</v>
+      </c>
+      <c r="AT5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AY5" s="37">
+        <v>1.3125</v>
+      </c>
+      <c r="AZ5" s="37">
+        <v>3.125</v>
+      </c>
+      <c r="BA5" s="37">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="37">
+        <v>36.875</v>
+      </c>
+      <c r="BC5" s="37">
+        <v>46.75</v>
+      </c>
+      <c r="BD5" s="37">
+        <v>101.4375</v>
+      </c>
+      <c r="BE5" s="37">
+        <v>19.5625</v>
+      </c>
+      <c r="BF5" s="37">
+        <v>43.1875</v>
+      </c>
+      <c r="BG5" s="37">
+        <v>97.9375</v>
+      </c>
+      <c r="BH5" s="37">
+        <v>114.25</v>
+      </c>
+      <c r="BI5" s="37">
+        <v>33.625</v>
+      </c>
+      <c r="BJ5" s="37">
+        <v>941.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="H1" s="42">
+      <c r="B6" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="37">
+        <v>38.125</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.1875</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="37">
+        <v>9.0625</v>
+      </c>
+      <c r="H6" s="37">
+        <v>54.6875</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37">
+        <v>15.9375</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37">
+        <v>7.25</v>
+      </c>
+      <c r="M6" s="37">
+        <v>1.5625</v>
+      </c>
+      <c r="N6" s="37">
+        <v>2.6875</v>
+      </c>
+      <c r="O6" s="37">
+        <v>0</v>
+      </c>
+      <c r="P6" s="37">
+        <v>101.625</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>89.8125</v>
+      </c>
+      <c r="R6" s="37">
+        <v>102.8125</v>
+      </c>
+      <c r="S6" s="37">
+        <v>33.6875</v>
+      </c>
+      <c r="T6" s="37">
+        <v>0.5625</v>
+      </c>
+      <c r="U6" s="37">
+        <v>0</v>
+      </c>
+      <c r="V6" s="37">
+        <v>135.875</v>
+      </c>
+      <c r="W6" s="37">
+        <v>79.625</v>
+      </c>
+      <c r="X6" s="37">
+        <v>127.125</v>
+      </c>
+      <c r="Y6" s="37">
+        <v>81.1875</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>20.5</v>
+      </c>
+      <c r="AA6" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB6" s="37">
+        <v>0.4375</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="AD6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>13.25</v>
+      </c>
+      <c r="AF6" s="37">
+        <v>62.125</v>
+      </c>
+      <c r="AG6" s="37">
+        <v>88.1875</v>
+      </c>
+      <c r="AH6" s="37">
+        <v>36.75</v>
+      </c>
+      <c r="AI6" s="37">
+        <v>30</v>
+      </c>
+      <c r="AJ6" s="37">
+        <v>3.5625</v>
+      </c>
+      <c r="AK6" s="37">
+        <v>62.1875</v>
+      </c>
+      <c r="AL6" s="37">
+        <v>14.8125</v>
+      </c>
+      <c r="AM6" s="37">
+        <v>60.25</v>
+      </c>
+      <c r="AN6" s="37">
+        <v>40.625</v>
+      </c>
+      <c r="AO6" s="37">
+        <v>48.0625</v>
+      </c>
+      <c r="AP6" s="37">
+        <v>6.875</v>
+      </c>
+      <c r="AQ6" s="37">
+        <v>24.0625</v>
+      </c>
+      <c r="AR6" s="37">
+        <v>0.1875</v>
+      </c>
+      <c r="AS6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="AZ6" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="BA6" s="37">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="37">
+        <v>15.3125</v>
+      </c>
+      <c r="BC6" s="37">
+        <v>41.375</v>
+      </c>
+      <c r="BD6" s="37">
+        <v>32.1875</v>
+      </c>
+      <c r="BE6" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="BF6" s="37">
+        <v>3.25</v>
+      </c>
+      <c r="BG6" s="37">
+        <v>35.0625</v>
+      </c>
+      <c r="BH6" s="37">
+        <v>46.375</v>
+      </c>
+      <c r="BI6" s="37">
+        <v>1.125</v>
+      </c>
+      <c r="BJ6" s="37">
+        <v>134.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="I1" s="42">
-        <v>7</v>
-      </c>
-      <c r="J1" s="42">
-        <v>8</v>
-      </c>
-      <c r="K1" s="42">
-        <v>9</v>
-      </c>
-      <c r="L1" s="42">
-        <v>10</v>
-      </c>
-      <c r="M1" s="42">
-        <v>11</v>
-      </c>
-      <c r="N1" s="42">
-        <v>12</v>
-      </c>
-      <c r="O1" s="42">
-        <v>13</v>
-      </c>
-      <c r="P1" s="42">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="42">
-        <v>15</v>
-      </c>
-      <c r="R1" s="42">
-        <v>16</v>
-      </c>
-      <c r="S1" s="42">
-        <v>17</v>
-      </c>
-      <c r="T1" s="42">
-        <v>18</v>
-      </c>
-      <c r="U1" s="42">
-        <v>19</v>
-      </c>
-      <c r="V1" s="42">
-        <v>20</v>
-      </c>
-      <c r="W1" s="42">
-        <v>21</v>
-      </c>
-      <c r="X1" s="42">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="42">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="42">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="42">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="42">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="42">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="42">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="42">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="42">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="42">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="42">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="42">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="42">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="42">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="42">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="42">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="42">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="42">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="42">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="42">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="42">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="42">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="42">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="42">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="42">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="42">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="42">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="42">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="42">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="42">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="42">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="42">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="42">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="42">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="42">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="42">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="42">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="42">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="42">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="40">
-        <v>60.5625</v>
-      </c>
-      <c r="D2" s="40">
-        <v>165.625</v>
-      </c>
-      <c r="E2" s="40">
-        <v>32.3125</v>
-      </c>
-      <c r="F2" s="40">
-        <v>41.5</v>
-      </c>
-      <c r="G2" s="40">
-        <v>41.8125</v>
-      </c>
-      <c r="H2" s="40">
-        <v>28.625</v>
-      </c>
-      <c r="I2" s="40">
-        <v>0.375</v>
-      </c>
-      <c r="J2" s="40">
-        <v>45.75</v>
-      </c>
-      <c r="K2" s="40">
-        <v>5.75</v>
-      </c>
-      <c r="L2" s="40">
-        <v>63.5625</v>
-      </c>
-      <c r="M2" s="40">
-        <v>8.9375</v>
-      </c>
-      <c r="N2" s="40">
-        <v>156.5</v>
-      </c>
-      <c r="O2" s="40">
-        <v>58.1875</v>
-      </c>
-      <c r="P2" s="40">
-        <v>233.3125</v>
-      </c>
-      <c r="Q2" s="40">
-        <v>218.625</v>
-      </c>
-      <c r="R2" s="40">
-        <v>230.0625</v>
-      </c>
-      <c r="S2" s="40">
-        <v>235.0625</v>
-      </c>
-      <c r="T2" s="40">
-        <v>78.1875</v>
-      </c>
-      <c r="U2" s="40">
-        <v>4.6875</v>
-      </c>
-      <c r="V2" s="40">
-        <v>246.1875</v>
-      </c>
-      <c r="W2" s="40">
-        <v>129.8125</v>
-      </c>
-      <c r="X2" s="40">
-        <v>113.0625</v>
-      </c>
-      <c r="Y2" s="40">
-        <v>199.4375</v>
-      </c>
-      <c r="Z2" s="40">
-        <v>237.3125</v>
-      </c>
-      <c r="AA2" s="40">
-        <v>65.1875</v>
-      </c>
-      <c r="AB2" s="40">
-        <v>51.0625</v>
-      </c>
-      <c r="AC2" s="40">
-        <v>64.5</v>
-      </c>
-      <c r="AD2" s="40">
-        <v>41.1875</v>
-      </c>
-      <c r="AE2" s="40">
-        <v>71.8125</v>
-      </c>
-      <c r="AF2" s="40">
-        <v>170.0625</v>
-      </c>
-      <c r="AG2" s="40">
-        <v>318.4375</v>
-      </c>
-      <c r="AH2" s="40">
-        <v>283.1875</v>
-      </c>
-      <c r="AI2" s="40">
-        <v>148.25</v>
-      </c>
-      <c r="AJ2" s="40">
-        <v>254.25</v>
-      </c>
-      <c r="AK2" s="40">
-        <v>73.25</v>
-      </c>
-      <c r="AL2" s="40">
-        <v>79.4375</v>
-      </c>
-      <c r="AM2" s="40">
-        <v>126.875</v>
-      </c>
-      <c r="AN2" s="40">
-        <v>185.4375</v>
-      </c>
-      <c r="AO2" s="40">
-        <v>194.0625</v>
-      </c>
-      <c r="AP2" s="40">
-        <v>328.9375</v>
-      </c>
-      <c r="AQ2" s="40">
-        <v>57.25</v>
-      </c>
-      <c r="AR2" s="40">
-        <v>358.5</v>
-      </c>
-      <c r="AS2" s="40">
-        <v>356.8125</v>
-      </c>
-      <c r="AT2" s="40">
-        <v>157.6875</v>
-      </c>
-      <c r="AU2" s="40">
-        <v>30.6875</v>
-      </c>
-      <c r="AV2" s="40">
-        <v>52</v>
-      </c>
-      <c r="AW2" s="40">
-        <v>36.0625</v>
-      </c>
-      <c r="AX2" s="40">
-        <v>76.6875</v>
-      </c>
-      <c r="AY2" s="40">
-        <v>229</v>
-      </c>
-      <c r="AZ2" s="40">
-        <v>86.9375</v>
-      </c>
-      <c r="BA2" s="40">
-        <v>91.25</v>
-      </c>
-      <c r="BB2" s="40">
-        <v>66.375</v>
-      </c>
-      <c r="BC2" s="40">
-        <v>57.6875</v>
-      </c>
-      <c r="BD2" s="40">
-        <v>286.375</v>
-      </c>
-      <c r="BE2" s="40">
-        <v>188.0625</v>
-      </c>
-      <c r="BF2" s="40">
+      <c r="B7" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="37">
+        <v>12.375</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.8125</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="37">
+        <v>62.5625</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.5625</v>
+      </c>
+      <c r="N7" s="37">
+        <v>4.9375</v>
+      </c>
+      <c r="O7" s="37">
+        <v>0</v>
+      </c>
+      <c r="P7" s="37">
+        <v>75.0625</v>
+      </c>
+      <c r="Q7" s="37">
         <v>150.5625</v>
       </c>
-      <c r="BG2" s="40">
-        <v>450.8125</v>
-      </c>
-      <c r="BH2" s="40">
-        <v>651</v>
-      </c>
-      <c r="BI2" s="40">
-        <v>1451</v>
-      </c>
-      <c r="BJ2" s="40">
-        <v>920.0625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="40">
-        <v>144.625</v>
-      </c>
-      <c r="D3" s="40">
-        <v>32.4375</v>
-      </c>
-      <c r="E3" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="40">
-        <v>4.6875</v>
-      </c>
-      <c r="G3" s="40">
-        <v>13.375</v>
-      </c>
-      <c r="H3" s="40">
-        <v>38.4375</v>
-      </c>
-      <c r="I3" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="J3" s="40">
-        <v>18.9375</v>
-      </c>
-      <c r="K3" s="40">
-        <v>3.5</v>
-      </c>
-      <c r="L3" s="40">
-        <v>42.6875</v>
-      </c>
-      <c r="M3" s="40">
-        <v>6.5625</v>
-      </c>
-      <c r="N3" s="40">
-        <v>23.6875</v>
-      </c>
-      <c r="O3" s="40">
-        <v>13.0625</v>
-      </c>
-      <c r="P3" s="40">
-        <v>45.6875</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>63.5625</v>
-      </c>
-      <c r="R3" s="40">
-        <v>55.6875</v>
-      </c>
-      <c r="S3" s="40">
-        <v>64.1875</v>
-      </c>
-      <c r="T3" s="40">
-        <v>47.625</v>
-      </c>
-      <c r="U3" s="40">
-        <v>2.1875</v>
-      </c>
-      <c r="V3" s="40">
-        <v>81.875</v>
-      </c>
-      <c r="W3" s="40">
-        <v>39.125</v>
-      </c>
-      <c r="X3" s="40">
-        <v>40.4375</v>
-      </c>
-      <c r="Y3" s="40">
-        <v>36.125</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>22.875</v>
-      </c>
-      <c r="AA3" s="40">
-        <v>1.1875</v>
-      </c>
-      <c r="AB3" s="40">
-        <v>0.9375</v>
-      </c>
-      <c r="AC3" s="40">
-        <v>13.75</v>
-      </c>
-      <c r="AD3" s="40">
-        <v>8.375</v>
-      </c>
-      <c r="AE3" s="40">
-        <v>17</v>
-      </c>
-      <c r="AF3" s="40">
-        <v>26.0625</v>
-      </c>
-      <c r="AG3" s="40">
-        <v>36.375</v>
-      </c>
-      <c r="AH3" s="40">
-        <v>27.5625</v>
-      </c>
-      <c r="AI3" s="40">
-        <v>21.9375</v>
-      </c>
-      <c r="AJ3" s="40">
-        <v>67.6875</v>
-      </c>
-      <c r="AK3" s="40">
-        <v>21.5</v>
-      </c>
-      <c r="AL3" s="40">
-        <v>10.875</v>
-      </c>
-      <c r="AM3" s="40">
-        <v>29.75</v>
-      </c>
-      <c r="AN3" s="40">
-        <v>27.25</v>
-      </c>
-      <c r="AO3" s="40">
-        <v>29.125</v>
-      </c>
-      <c r="AP3" s="40">
-        <v>43.125</v>
-      </c>
-      <c r="AQ3" s="40">
-        <v>14.875</v>
-      </c>
-      <c r="AR3" s="40">
-        <v>19.4375</v>
-      </c>
-      <c r="AS3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AT3" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="AU3" s="40">
+      <c r="R7" s="37">
+        <v>129.1875</v>
+      </c>
+      <c r="S7" s="37">
+        <v>15.9375</v>
+      </c>
+      <c r="T7" s="37">
         <v>0</v>
       </c>
-      <c r="AV3" s="40">
+      <c r="U7" s="37">
         <v>0</v>
       </c>
-      <c r="AW3" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AX3" s="40">
-        <v>1.8125</v>
-      </c>
-      <c r="AY3" s="40">
-        <v>14</v>
-      </c>
-      <c r="AZ3" s="40">
-        <v>14.875</v>
-      </c>
-      <c r="BA3" s="40">
-        <v>8.875</v>
-      </c>
-      <c r="BB3" s="40">
-        <v>32.125</v>
-      </c>
-      <c r="BC3" s="40">
-        <v>14.3125</v>
-      </c>
-      <c r="BD3" s="40">
-        <v>84.75</v>
-      </c>
-      <c r="BE3" s="40">
-        <v>34.0625</v>
-      </c>
-      <c r="BF3" s="40">
-        <v>33.625</v>
-      </c>
-      <c r="BG3" s="40">
-        <v>81.3125</v>
-      </c>
-      <c r="BH3" s="40">
-        <v>103.5625</v>
-      </c>
-      <c r="BI3" s="40">
-        <v>363.0625</v>
-      </c>
-      <c r="BJ3" s="40">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
-        <v>3</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="V7" s="37">
+        <v>182.125</v>
+      </c>
+      <c r="W7" s="37">
+        <v>223.5625</v>
+      </c>
+      <c r="X7" s="37">
+        <v>225.125</v>
+      </c>
+      <c r="Y7" s="37">
+        <v>83.4375</v>
+      </c>
+      <c r="Z7" s="37">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="37">
+        <v>0.3125</v>
+      </c>
+      <c r="AC7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="37">
+        <v>51.375</v>
+      </c>
+      <c r="AG7" s="37">
+        <v>218.375</v>
+      </c>
+      <c r="AH7" s="37">
+        <v>27.125</v>
+      </c>
+      <c r="AI7" s="37">
+        <v>3.25</v>
+      </c>
+      <c r="AJ7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="37">
+        <v>11.4375</v>
+      </c>
+      <c r="AL7" s="37">
+        <v>6</v>
+      </c>
+      <c r="AM7" s="37">
+        <v>62.875</v>
+      </c>
+      <c r="AN7" s="37">
+        <v>14.6875</v>
+      </c>
+      <c r="AO7" s="37">
+        <v>69.1875</v>
+      </c>
+      <c r="AP7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="37">
+        <v>4.625</v>
+      </c>
+      <c r="AR7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="37">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="37">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="37">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="37">
+        <v>7.375</v>
+      </c>
+      <c r="BC7" s="37">
+        <v>63.125</v>
+      </c>
+      <c r="BD7" s="37">
+        <v>27.0625</v>
+      </c>
+      <c r="BE7" s="37">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="37">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="37">
+        <v>14.125</v>
+      </c>
+      <c r="BH7" s="37">
+        <v>36.75</v>
+      </c>
+      <c r="BI7" s="37">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="37">
+        <v>17.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="40">
-        <v>251</v>
-      </c>
-      <c r="D4" s="40">
-        <v>23.5</v>
-      </c>
-      <c r="E4" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="F4" s="40">
-        <v>2.625</v>
-      </c>
-      <c r="G4" s="40">
-        <v>12.3125</v>
-      </c>
-      <c r="H4" s="40">
-        <v>65.5</v>
-      </c>
-      <c r="I4" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="40">
-        <v>21.875</v>
-      </c>
-      <c r="K4" s="40">
-        <v>2.9375</v>
-      </c>
-      <c r="L4" s="40">
-        <v>66.625</v>
-      </c>
-      <c r="M4" s="40">
-        <v>6.1875</v>
-      </c>
-      <c r="N4" s="40">
-        <v>5.875</v>
-      </c>
-      <c r="O4" s="40">
-        <v>6.1875</v>
-      </c>
-      <c r="P4" s="40">
-        <v>44.4375</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>53.625</v>
-      </c>
-      <c r="R4" s="40">
-        <v>67.1875</v>
-      </c>
-      <c r="S4" s="40">
-        <v>44.6875</v>
-      </c>
-      <c r="T4" s="40">
-        <v>47</v>
-      </c>
-      <c r="U4" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="V4" s="40">
-        <v>74.25</v>
-      </c>
-      <c r="W4" s="40">
-        <v>37.0625</v>
-      </c>
-      <c r="X4" s="40">
-        <v>47.625</v>
-      </c>
-      <c r="Y4" s="40">
-        <v>34.8125</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>23.25</v>
-      </c>
-      <c r="AA4" s="40">
-        <v>0.3125</v>
-      </c>
-      <c r="AB4" s="40">
-        <v>0.9375</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>11.6875</v>
-      </c>
-      <c r="AD4" s="40">
-        <v>3.5</v>
-      </c>
-      <c r="AE4" s="40">
-        <v>12.5</v>
-      </c>
-      <c r="AF4" s="40">
-        <v>27.0625</v>
-      </c>
-      <c r="AG4" s="40">
-        <v>40.625</v>
-      </c>
-      <c r="AH4" s="40">
-        <v>36.6875</v>
-      </c>
-      <c r="AI4" s="40">
-        <v>25.0625</v>
-      </c>
-      <c r="AJ4" s="40">
-        <v>73.6875</v>
-      </c>
-      <c r="AK4" s="40">
-        <v>34.8125</v>
-      </c>
-      <c r="AL4" s="40">
-        <v>17.4375</v>
-      </c>
-      <c r="AM4" s="40">
-        <v>37.75</v>
-      </c>
-      <c r="AN4" s="40">
-        <v>25.25</v>
-      </c>
-      <c r="AO4" s="40">
-        <v>31.6875</v>
-      </c>
-      <c r="AP4" s="40">
-        <v>45.625</v>
-      </c>
-      <c r="AQ4" s="40">
-        <v>20.8125</v>
-      </c>
-      <c r="AR4" s="40">
-        <v>6.875</v>
-      </c>
-      <c r="AS4" s="40">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AU4" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AV4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AY4" s="40">
-        <v>4.75</v>
-      </c>
-      <c r="AZ4" s="40">
-        <v>6.125</v>
-      </c>
-      <c r="BA4" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="BB4" s="40">
-        <v>30.25</v>
-      </c>
-      <c r="BC4" s="40">
-        <v>22.0625</v>
-      </c>
-      <c r="BD4" s="40">
-        <v>125.1875</v>
-      </c>
-      <c r="BE4" s="40">
-        <v>38.5625</v>
-      </c>
-      <c r="BF4" s="40">
-        <v>51.5</v>
-      </c>
-      <c r="BG4" s="40">
-        <v>88.125</v>
-      </c>
-      <c r="BH4" s="40">
-        <v>103.1875</v>
-      </c>
-      <c r="BI4" s="40">
-        <v>148.3125</v>
-      </c>
-      <c r="BJ4" s="40">
-        <v>1173.0625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
-        <v>4</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="40">
-        <v>231.3125</v>
-      </c>
-      <c r="D5" s="40">
-        <v>3.1875</v>
-      </c>
-      <c r="E5" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F5" s="40">
-        <v>2.875</v>
-      </c>
-      <c r="G5" s="40">
-        <v>17.375</v>
-      </c>
-      <c r="H5" s="40">
-        <v>88</v>
-      </c>
-      <c r="I5" s="40">
-        <v>0</v>
-      </c>
-      <c r="J5" s="40">
-        <v>31.375</v>
-      </c>
-      <c r="K5" s="40">
-        <v>0.625</v>
-      </c>
-      <c r="L5" s="40">
-        <v>40.8125</v>
-      </c>
-      <c r="M5" s="40">
-        <v>4.125</v>
-      </c>
-      <c r="N5" s="40">
-        <v>4.9375</v>
-      </c>
-      <c r="O5" s="40">
-        <v>1.3125</v>
-      </c>
-      <c r="P5" s="40">
-        <v>86.25</v>
-      </c>
-      <c r="Q5" s="40">
-        <v>82.75</v>
-      </c>
-      <c r="R5" s="40">
-        <v>125.125</v>
-      </c>
-      <c r="S5" s="40">
-        <v>73.6875</v>
-      </c>
-      <c r="T5" s="40">
-        <v>39.625</v>
-      </c>
-      <c r="U5" s="40">
-        <v>0.1875</v>
-      </c>
-      <c r="V5" s="40">
-        <v>128.25</v>
-      </c>
-      <c r="W5" s="40">
-        <v>66.75</v>
-      </c>
-      <c r="X5" s="40">
-        <v>89.4375</v>
-      </c>
-      <c r="Y5" s="40">
-        <v>68.375</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>41.125</v>
-      </c>
-      <c r="AA5" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AB5" s="40">
-        <v>0.875</v>
-      </c>
-      <c r="AC5" s="40">
-        <v>14.1875</v>
-      </c>
-      <c r="AD5" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="AE5" s="40">
-        <v>11.9375</v>
-      </c>
-      <c r="AF5" s="40">
-        <v>54.3125</v>
-      </c>
-      <c r="AG5" s="40">
-        <v>78.625</v>
-      </c>
-      <c r="AH5" s="40">
-        <v>60.1875</v>
-      </c>
-      <c r="AI5" s="40">
-        <v>51.75</v>
-      </c>
-      <c r="AJ5" s="40">
-        <v>70.9375</v>
-      </c>
-      <c r="AK5" s="40">
-        <v>128.8125</v>
-      </c>
-      <c r="AL5" s="40">
-        <v>23.3125</v>
-      </c>
-      <c r="AM5" s="40">
-        <v>58.8125</v>
-      </c>
-      <c r="AN5" s="40">
-        <v>45.3125</v>
-      </c>
-      <c r="AO5" s="40">
-        <v>59.5</v>
-      </c>
-      <c r="AP5" s="40">
-        <v>48.8125</v>
-      </c>
-      <c r="AQ5" s="40">
-        <v>40.5625</v>
-      </c>
-      <c r="AR5" s="40">
-        <v>1.375</v>
-      </c>
-      <c r="AS5" s="40">
-        <v>0.1875</v>
-      </c>
-      <c r="AT5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AY5" s="40">
-        <v>1.3125</v>
-      </c>
-      <c r="AZ5" s="40">
-        <v>3.125</v>
-      </c>
-      <c r="BA5" s="40">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="40">
-        <v>36.875</v>
-      </c>
-      <c r="BC5" s="40">
-        <v>46.75</v>
-      </c>
-      <c r="BD5" s="40">
-        <v>101.4375</v>
-      </c>
-      <c r="BE5" s="40">
-        <v>19.5625</v>
-      </c>
-      <c r="BF5" s="40">
-        <v>43.1875</v>
-      </c>
-      <c r="BG5" s="40">
-        <v>97.9375</v>
-      </c>
-      <c r="BH5" s="40">
-        <v>114.25</v>
-      </c>
-      <c r="BI5" s="40">
-        <v>33.625</v>
-      </c>
-      <c r="BJ5" s="40">
-        <v>941.5625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="40">
-        <v>38.125</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0.1875</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="G6" s="40">
-        <v>9.0625</v>
-      </c>
-      <c r="H6" s="40">
-        <v>54.6875</v>
-      </c>
-      <c r="I6" s="40">
-        <v>0</v>
-      </c>
-      <c r="J6" s="40">
-        <v>15.9375</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0</v>
-      </c>
-      <c r="L6" s="40">
-        <v>7.25</v>
-      </c>
-      <c r="M6" s="40">
-        <v>1.5625</v>
-      </c>
-      <c r="N6" s="40">
-        <v>2.6875</v>
-      </c>
-      <c r="O6" s="40">
-        <v>0</v>
-      </c>
-      <c r="P6" s="40">
-        <v>101.625</v>
-      </c>
-      <c r="Q6" s="40">
-        <v>89.8125</v>
-      </c>
-      <c r="R6" s="40">
-        <v>102.8125</v>
-      </c>
-      <c r="S6" s="40">
-        <v>33.6875</v>
-      </c>
-      <c r="T6" s="40">
-        <v>0.5625</v>
-      </c>
-      <c r="U6" s="40">
-        <v>0</v>
-      </c>
-      <c r="V6" s="40">
-        <v>135.875</v>
-      </c>
-      <c r="W6" s="40">
-        <v>79.625</v>
-      </c>
-      <c r="X6" s="40">
-        <v>127.125</v>
-      </c>
-      <c r="Y6" s="40">
-        <v>81.1875</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>20.5</v>
-      </c>
-      <c r="AA6" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AB6" s="40">
-        <v>0.4375</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="AD6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="40">
-        <v>13.25</v>
-      </c>
-      <c r="AF6" s="40">
-        <v>62.125</v>
-      </c>
-      <c r="AG6" s="40">
-        <v>88.1875</v>
-      </c>
-      <c r="AH6" s="40">
-        <v>36.75</v>
-      </c>
-      <c r="AI6" s="40">
-        <v>30</v>
-      </c>
-      <c r="AJ6" s="40">
-        <v>3.5625</v>
-      </c>
-      <c r="AK6" s="40">
-        <v>62.1875</v>
-      </c>
-      <c r="AL6" s="40">
-        <v>14.8125</v>
-      </c>
-      <c r="AM6" s="40">
-        <v>60.25</v>
-      </c>
-      <c r="AN6" s="40">
-        <v>40.625</v>
-      </c>
-      <c r="AO6" s="40">
-        <v>48.0625</v>
-      </c>
-      <c r="AP6" s="40">
-        <v>6.875</v>
-      </c>
-      <c r="AQ6" s="40">
-        <v>24.0625</v>
-      </c>
-      <c r="AR6" s="40">
-        <v>0.1875</v>
-      </c>
-      <c r="AS6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="40">
-        <v>0.125</v>
-      </c>
-      <c r="AZ6" s="40">
-        <v>6.25E-2</v>
-      </c>
-      <c r="BA6" s="40">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="40">
-        <v>15.3125</v>
-      </c>
-      <c r="BC6" s="40">
-        <v>41.375</v>
-      </c>
-      <c r="BD6" s="40">
-        <v>32.1875</v>
-      </c>
-      <c r="BE6" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="BF6" s="40">
-        <v>3.25</v>
-      </c>
-      <c r="BG6" s="40">
-        <v>35.0625</v>
-      </c>
-      <c r="BH6" s="40">
-        <v>46.375</v>
-      </c>
-      <c r="BI6" s="40">
-        <v>1.125</v>
-      </c>
-      <c r="BJ6" s="40">
-        <v>134.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
-        <v>6</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="40">
-        <v>12.375</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0.8125</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40">
-        <v>0</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="40">
-        <v>62.5625</v>
-      </c>
-      <c r="I7" s="40">
-        <v>0</v>
-      </c>
-      <c r="J7" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40">
-        <v>0.5625</v>
-      </c>
-      <c r="N7" s="40">
-        <v>4.9375</v>
-      </c>
-      <c r="O7" s="40">
-        <v>0</v>
-      </c>
-      <c r="P7" s="40">
-        <v>75.0625</v>
-      </c>
-      <c r="Q7" s="40">
-        <v>150.5625</v>
-      </c>
-      <c r="R7" s="40">
-        <v>129.1875</v>
-      </c>
-      <c r="S7" s="40">
-        <v>15.9375</v>
-      </c>
-      <c r="T7" s="40">
-        <v>0</v>
-      </c>
-      <c r="U7" s="40">
-        <v>0</v>
-      </c>
-      <c r="V7" s="40">
-        <v>182.125</v>
-      </c>
-      <c r="W7" s="40">
-        <v>223.5625</v>
-      </c>
-      <c r="X7" s="40">
-        <v>225.125</v>
-      </c>
-      <c r="Y7" s="40">
-        <v>83.4375</v>
-      </c>
-      <c r="Z7" s="40">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="40">
-        <v>0.3125</v>
-      </c>
-      <c r="AC7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="40">
-        <v>51.375</v>
-      </c>
-      <c r="AG7" s="40">
-        <v>218.375</v>
-      </c>
-      <c r="AH7" s="40">
-        <v>27.125</v>
-      </c>
-      <c r="AI7" s="40">
-        <v>3.25</v>
-      </c>
-      <c r="AJ7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="40">
-        <v>11.4375</v>
-      </c>
-      <c r="AL7" s="40">
-        <v>6</v>
-      </c>
-      <c r="AM7" s="40">
-        <v>62.875</v>
-      </c>
-      <c r="AN7" s="40">
-        <v>14.6875</v>
-      </c>
-      <c r="AO7" s="40">
-        <v>69.1875</v>
-      </c>
-      <c r="AP7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="40">
-        <v>4.625</v>
-      </c>
-      <c r="AR7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="40">
-        <v>7.375</v>
-      </c>
-      <c r="BC7" s="40">
-        <v>63.125</v>
-      </c>
-      <c r="BD7" s="40">
-        <v>27.0625</v>
-      </c>
-      <c r="BE7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="40">
-        <v>14.125</v>
-      </c>
-      <c r="BH7" s="40">
-        <v>36.75</v>
-      </c>
-      <c r="BI7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="40">
-        <v>17.375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="P8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="R8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="S8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="T8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="U8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="V8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="W8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="X8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AH8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AM8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AP8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AR8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AS8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AU8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AV8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="AZ8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BA8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BB8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BC8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BD8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BE8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BF8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BG8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BH8" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="BI8" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="BJ8" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="O9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="S9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="U9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="V9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="W9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="X9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ9" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR9" s="40" t="s">
+      <c r="E8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="W8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="X8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AW8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AZ8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BC8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BE8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BF8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BG8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BH8" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="BI8" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ8" s="38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="U9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="V9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="W9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="X9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ9" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AS9" s="40" t="s">
+      <c r="AS9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AT9" s="40" t="s">
+      <c r="AT9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AU9" s="40" t="s">
+      <c r="AU9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AV9" s="40" t="s">
+      <c r="AV9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AW9" s="40" t="s">
+      <c r="AW9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AX9" s="40" t="s">
+      <c r="AX9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AY9" s="40" t="s">
+      <c r="AY9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AZ9" s="40" t="s">
+      <c r="AZ9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BA9" s="40" t="s">
+      <c r="BA9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BB9" s="40" t="s">
+      <c r="BB9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BC9" s="40" t="s">
+      <c r="BC9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BD9" s="40" t="s">
+      <c r="BD9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BE9" s="40" t="s">
+      <c r="BE9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BF9" s="40" t="s">
+      <c r="BF9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BG9" s="40" t="s">
+      <c r="BG9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BH9" s="40" t="s">
+      <c r="BH9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BI9" s="40" t="s">
+      <c r="BI9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BJ9" s="40" t="s">
+      <c r="BJ9" s="37" t="s">
         <v>81</v>
       </c>
     </row>
